--- a/Stock Tracker.xlsx
+++ b/Stock Tracker.xlsx
@@ -541,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
